--- a/src/test/resources/search_test_data.xlsx
+++ b/src/test/resources/search_test_data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>verticals</t>
   </si>
@@ -41,7 +41,13 @@
     <t>spell check</t>
   </si>
   <si>
-    <t>Fashion &amp; Apparel</t>
+    <t>two word spell check</t>
+  </si>
+  <si>
+    <t>More than two word</t>
+  </si>
+  <si>
+    <t>Fashion and Apparel</t>
   </si>
   <si>
     <t>dress</t>
@@ -53,6 +59,9 @@
     <t>drss</t>
   </si>
   <si>
+    <t>brown color full top</t>
+  </si>
+  <si>
     <t>Electronics</t>
   </si>
   <si>
@@ -65,7 +74,13 @@
     <t>labtop</t>
   </si>
   <si>
-    <t>Home &amp; Living</t>
+    <t>gameg lptop</t>
+  </si>
+  <si>
+    <t>latest gaming touch laptop</t>
+  </si>
+  <si>
+    <t>Home and Living</t>
   </si>
   <si>
     <t>sofa</t>
@@ -77,6 +92,12 @@
     <t>chiar</t>
   </si>
   <si>
+    <t>bron sopa</t>
+  </si>
+  <si>
+    <t>big brown wooden chair</t>
+  </si>
+  <si>
     <t>Healthcare</t>
   </si>
   <si>
@@ -89,7 +110,10 @@
     <t>vitmin</t>
   </si>
   <si>
-    <t>Beauty &amp; Cosmetics</t>
+    <t>organic vitamin c tablets</t>
+  </si>
+  <si>
+    <t>Beauty and Cosmetics</t>
   </si>
   <si>
     <t>lipstick</t>
@@ -101,7 +125,10 @@
     <t>lipstik</t>
   </si>
   <si>
-    <t>Jewellery &amp; Gifts</t>
+    <t>long lasting red lipstick</t>
+  </si>
+  <si>
+    <t>Jewellery and Gifts</t>
   </si>
   <si>
     <t>ring</t>
@@ -113,6 +140,9 @@
     <t>rng</t>
   </si>
   <si>
+    <t>18k gold diamond ring</t>
+  </si>
+  <si>
     <t>Autoparts</t>
   </si>
   <si>
@@ -125,16 +155,25 @@
     <t>tyre</t>
   </si>
   <si>
-    <t>Food &amp; Grocery</t>
-  </si>
-  <si>
-    <t>pizza</t>
-  </si>
-  <si>
-    <t>cheese pizza</t>
-  </si>
-  <si>
-    <t>piza</t>
+    <t>heavy duty truck car tire</t>
+  </si>
+  <si>
+    <t>Food and Grocery</t>
+  </si>
+  <si>
+    <t>fruites</t>
+  </si>
+  <si>
+    <t>green apple</t>
+  </si>
+  <si>
+    <t>aple</t>
+  </si>
+  <si>
+    <t>gren aple</t>
+  </si>
+  <si>
+    <t>fresh green apple fruit pack</t>
   </si>
   <si>
     <t>Pet Products</t>
@@ -149,7 +188,10 @@
     <t>coller</t>
   </si>
   <si>
-    <t>Footware &amp; sportsware</t>
+    <t>red adjustable dog collar</t>
+  </si>
+  <si>
+    <t>Footware and sportsware</t>
   </si>
   <si>
     <t>shoes</t>
@@ -159,6 +201,12 @@
   </si>
   <si>
     <t>jocket</t>
+  </si>
+  <si>
+    <t>spots she</t>
+  </si>
+  <si>
+    <t>blue waterproof running shoes</t>
   </si>
 </sst>
 </file>
@@ -182,6 +230,7 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -331,18 +380,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -661,7 +704,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -685,16 +728,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -703,91 +746,96 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1134,20 +1182,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="19.2857142857143" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1160,145 +1210,201 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="2" customHeight="1" spans="1:6">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="3" customHeight="1" spans="1:6">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
+    <row r="4" customHeight="1" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
+    <row r="5" customHeight="1" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
+    <row r="6" customHeight="1" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
+    <row r="7" customHeight="1" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
+    <row r="8" customHeight="1" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
+    <row r="9" customHeight="1" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
+    <row r="10" customHeight="1" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
+    <row r="11" customHeight="1" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/search_test_data.xlsx
+++ b/src/test/resources/search_test_data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>verticals</t>
   </si>
@@ -44,7 +44,7 @@
     <t>two word spell check</t>
   </si>
   <si>
-    <t>More than two word</t>
+    <t>More than two word query</t>
   </si>
   <si>
     <t>Fashion and Apparel</t>
@@ -59,7 +59,10 @@
     <t>drss</t>
   </si>
   <si>
-    <t>brown color full top</t>
+    <t>summer+dres</t>
+  </si>
+  <si>
+    <t>red color full dress</t>
   </si>
   <si>
     <t>Electronics</t>
@@ -110,6 +113,9 @@
     <t>vitmin</t>
   </si>
   <si>
+    <t>vitmin c</t>
+  </si>
+  <si>
     <t>organic vitamin c tablets</t>
   </si>
   <si>
@@ -125,6 +131,9 @@
     <t>lipstik</t>
   </si>
   <si>
+    <t>red lipstik</t>
+  </si>
+  <si>
     <t>long lasting red lipstick</t>
   </si>
   <si>
@@ -140,6 +149,9 @@
     <t>rng</t>
   </si>
   <si>
+    <t>dimond rng</t>
+  </si>
+  <si>
     <t>18k gold diamond ring</t>
   </si>
   <si>
@@ -155,6 +167,9 @@
     <t>tyre</t>
   </si>
   <si>
+    <t>kar tyre</t>
+  </si>
+  <si>
     <t>heavy duty truck car tire</t>
   </si>
   <si>
@@ -188,6 +203,9 @@
     <t>coller</t>
   </si>
   <si>
+    <t>dog coller</t>
+  </si>
+  <si>
     <t>red adjustable dog collar</t>
   </si>
   <si>
@@ -197,7 +215,7 @@
     <t>shoes</t>
   </si>
   <si>
-    <t>Running shoes</t>
+    <t>running+shoes</t>
   </si>
   <si>
     <t>jocket</t>
@@ -206,7 +224,25 @@
     <t>spots she</t>
   </si>
   <si>
-    <t>blue waterproof running shoes</t>
+    <t>blue+waterproof+running+shoes</t>
+  </si>
+  <si>
+    <t>Mens fashion</t>
+  </si>
+  <si>
+    <t>Shirt</t>
+  </si>
+  <si>
+    <t>red+shirt</t>
+  </si>
+  <si>
+    <t>shrt</t>
+  </si>
+  <si>
+    <t>funtion wear</t>
+  </si>
+  <si>
+    <t>men black printed shirt</t>
   </si>
 </sst>
 </file>
@@ -1182,10 +1218,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="5"/>
@@ -1231,180 +1267,210 @@
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:6">
+    <row r="3" ht="26" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="F6" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="F7" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="F10" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:6">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
